--- a/Labs/Lab1/Assignment1Rubric.xlsx
+++ b/Labs/Lab1/Assignment1Rubric.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10112"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10110"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS246-CourseMaterials/Labs/Lab1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/DataCard/Repos/CS246-Repos/CS246-CourseMaterials/Labs/Lab1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3ACFDA-1B79-F544-AC8E-0C625C753D60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{471B3023-D13E-6140-BDC1-D0F86F6543E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14200" yWindow="660" windowWidth="11920" windowHeight="15440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9140" yWindow="620" windowWidth="16980" windowHeight="15440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rubric" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="33">
   <si>
     <t>Possible</t>
   </si>
@@ -121,6 +121,18 @@
   </si>
   <si>
     <t>Here's the grade breakdown:</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Excellent, good detail and organization!</t>
+  </si>
+  <si>
+    <t>Good job of sharing the work.</t>
   </si>
 </sst>
 </file>
@@ -362,7 +374,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -400,12 +412,11 @@
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="49" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -756,12 +767,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="4"/>
@@ -948,7 +959,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="149" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -961,7 +972,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="17" t="s">
         <v>24</v>
       </c>
       <c r="B1" s="16"/>
@@ -970,22 +981,22 @@
       <c r="E1" s="16"/>
     </row>
     <row r="2" spans="1:6" ht="46" customHeight="1">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
     </row>
     <row r="3" spans="1:6" ht="25" customHeight="1">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
+      <c r="E3" s="19"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="13" t="s">
@@ -1002,7 +1013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" ht="17">
       <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
@@ -1012,9 +1023,11 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="E5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17">
       <c r="A6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1024,9 +1037,11 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="E6" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17">
       <c r="A7" s="7" t="s">
         <v>21</v>
       </c>
@@ -1036,7 +1051,9 @@
       <c r="C7">
         <v>10</v>
       </c>
-      <c r="E7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="11" t="s">
@@ -1048,7 +1065,9 @@
       <c r="C8" s="10">
         <v>10</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="12" t="s">
@@ -1089,7 +1108,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" ht="17">
       <c r="A12" s="7" t="s">
         <v>3</v>
       </c>
@@ -1099,9 +1118,11 @@
       <c r="C12">
         <v>8</v>
       </c>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="E12" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17">
       <c r="A13" s="7" t="s">
         <v>16</v>
       </c>
@@ -1111,9 +1132,11 @@
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="E13" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="34">
       <c r="A14" s="7" t="s">
         <v>4</v>
       </c>
@@ -1123,9 +1146,11 @@
       <c r="C14">
         <v>25</v>
       </c>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="E14" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17">
       <c r="A15" s="7" t="s">
         <v>5</v>
       </c>
@@ -1135,9 +1160,11 @@
       <c r="C15">
         <v>7</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="E15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="17">
       <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
@@ -1147,9 +1174,11 @@
       <c r="C16">
         <v>5</v>
       </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="E16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="17">
       <c r="A17" s="7" t="s">
         <v>6</v>
       </c>
@@ -1159,9 +1188,11 @@
       <c r="C17">
         <v>3</v>
       </c>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="E17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="17">
       <c r="A18" s="7" t="s">
         <v>7</v>
       </c>
@@ -1171,9 +1202,11 @@
       <c r="C18">
         <v>3</v>
       </c>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="17">
       <c r="A19" s="7" t="s">
         <v>8</v>
       </c>
@@ -1183,7 +1216,9 @@
       <c r="C19">
         <v>3</v>
       </c>
-      <c r="E19" s="3"/>
+      <c r="E19" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="7" t="s">
@@ -1195,7 +1230,9 @@
       <c r="C20">
         <v>2</v>
       </c>
-      <c r="E20" s="3"/>
+      <c r="E20" s="3" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
@@ -1212,7 +1249,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" ht="34">
       <c r="A23" s="14" t="s">
         <v>23</v>
       </c>
@@ -1221,6 +1258,9 @@
       </c>
       <c r="C23" s="2">
         <v>8</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:5">
